--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.62</v>
+        <v>2.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.93</v>
+        <v>2.31</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.49</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.93</v>
+        <v>3.67</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2.79</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>3.09</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.58</v>
+        <v>3.62</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>3.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.49</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.79</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.09</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.94</v>
+        <v>4.07</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.87</v>
+        <v>3.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.21</v>
+        <v>4.42</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.7</v>
+        <v>3.99</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.27</v>
+        <v>5.74</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>6.42</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2812,15 +2812,15 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>6.51</v>
+        <v>4.72</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>5.85</v>
+        <v>4.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,15 +2828,15 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>10.58</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>9.289999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-bw-linz/hj1zrM65/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-salzburg/zFjustMB/</t>
         </is>
       </c>
     </row>
@@ -2873,30 +2873,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>5.74</v>
+        <v>1.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.42</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,15 +2904,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.72</v>
+        <v>6.51</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.43</v>
+        <v>5.85</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,15 +2920,15 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.52</v>
+        <v>10.58</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.54</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-salzburg/zFjustMB/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-bw-linz/hj1zrM65/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:52</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.37</v>
+        <v>4.13</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.1</v>
+        <v>3.56</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>7.28</v>
+        <v>3.46</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:52</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.92</v>
+        <v>4.37</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.09</v>
+        <v>5.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.59</v>
+        <v>5.1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.87</v>
+        <v>7.28</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-austria-vienna/rufmuKjO/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>A. Klagenfurt</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.13</v>
+        <v>3.92</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.72</v>
+        <v>4.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-austria-vienna/rufmuKjO/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.81</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.7</v>
+        <v>13.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.54</v>
+        <v>6.64</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.38</v>
+        <v>7.85</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.77</v>
+        <v>1.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,282 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-rapid-vienna/8rPFOw5i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.94</v>
+        <v>4.07</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.87</v>
+        <v>3.86</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.21</v>
+        <v>4.42</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.7</v>
+        <v>3.99</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:52</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.37</v>
+        <v>3.92</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.55</v>
+        <v>4.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.1</v>
+        <v>3.59</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.28</v>
+        <v>3.87</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-austria-vienna/rufmuKjO/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.92</v>
+        <v>4.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.09</v>
+        <v>5.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.59</v>
+        <v>5.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.87</v>
+        <v>7.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-austria-vienna/rufmuKjO/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.78</v>
+        <v>5.42</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>7.27</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:58</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.12</v>
+        <v>4.45</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.94</v>
+        <v>5.21</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.22</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.81</v>
+        <v>1.42</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
       <c r="J57" t="n">
-        <v>5.42</v>
+        <v>1.78</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>7.27</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>01/10/2023 16:12</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="T57" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>01/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,190 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.60416666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.60416666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,63 +5917,155 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45207.70833333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="J60" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>01/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>08/10/2023 14:21</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-salzburg/OWjC0RI1/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.47</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>2.43</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.94</v>
+        <v>3.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.87</v>
+        <v>3.63</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.21</v>
+        <v>2.56</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.7</v>
+        <v>2.93</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tirol</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.52</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.63</v>
+        <v>3.86</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.56</v>
+        <v>4.42</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.93</v>
+        <v>3.99</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:52</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.13</v>
+        <v>4.37</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.72</v>
+        <v>5.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.56</v>
+        <v>5.1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.46</v>
+        <v>7.28</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:52</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.37</v>
+        <v>4.13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.1</v>
+        <v>3.56</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.28</v>
+        <v>3.46</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.41</v>
+        <v>2.77</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.65</v>
+        <v>3.86</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.43</v>
+        <v>3.73</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:47</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.42</v>
+        <v>3.21</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.11</v>
+        <v>2.51</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-hartberg/0dO1bsin/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-bw-linz/fJN5c16h/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.86</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.73</v>
+        <v>3.43</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:47</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.21</v>
+        <v>3.42</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.51</v>
+        <v>3.11</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-bw-linz/fJN5c16h/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-hartberg/0dO1bsin/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.7</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>2.7</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.32</v>
+        <v>1.46</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.28</v>
+        <v>1.84</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:10</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.78</v>
+        <v>6.77</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.87</v>
+        <v>4.63</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,282 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-salzburg/OWjC0RI1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:32</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,38 +757,38 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.86</v>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>07/07/2023 11:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.88</v>
+        <v>3.76</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.59</v>
+        <v>3.81</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.19</v>
+        <v>3.75</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.28</v>
+        <v>2.92</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-bw-linz/M9LsxfvF/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A. Klagenfurt</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.76</v>
+        <v>3.88</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.81</v>
+        <v>3.59</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.92</v>
+        <v>3.28</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-bw-linz/M9LsxfvF/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.43</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.52</v>
+        <v>4.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.63</v>
+        <v>4.87</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.56</v>
+        <v>6.21</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.93</v>
+        <v>5.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.94</v>
+        <v>4.07</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.87</v>
+        <v>3.86</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.21</v>
+        <v>4.42</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.7</v>
+        <v>3.99</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.07</v>
+        <v>3.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.86</v>
+        <v>3.63</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.42</v>
+        <v>2.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.99</v>
+        <v>2.93</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5.85</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>8.08</v>
+        <v>5.89</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.67</v>
+        <v>3.9</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5.37</v>
+        <v>4.89</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>5.85</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5.89</v>
+        <v>8.08</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>4.67</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.89</v>
+        <v>5.37</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.86</v>
+        <v>3.65</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.73</v>
+        <v>3.43</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:47</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.21</v>
+        <v>3.42</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.51</v>
+        <v>3.11</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:59</t>
+          <t>02/09/2023 16:54</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-bw-linz/fJN5c16h/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-hartberg/0dO1bsin/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.41</v>
+        <v>2.77</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.65</v>
+        <v>3.86</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.43</v>
+        <v>3.73</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:47</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.42</v>
+        <v>3.21</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.11</v>
+        <v>2.51</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:54</t>
+          <t>02/09/2023 16:59</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-hartberg/0dO1bsin/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-bw-linz/fJN5c16h/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.74</v>
+        <v>2.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.48</v>
+        <v>1.99</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.62</v>
+        <v>2.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.58</v>
+        <v>1.59</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.95</v>
+        <v>1.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.87</v>
+        <v>4.48</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.99</v>
+        <v>5.48</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.47</v>
+        <v>4.62</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:29</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.7</v>
+        <v>13.38</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>6.64</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.38</v>
+        <v>7.85</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.77</v>
+        <v>1.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,282 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-wolfsberger-ac/0IHtG6Il/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45221.60416666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>11/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>11/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>11/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-austria-vienna/IgCoFQXf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45221.70833333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-a-klagenfurt/4nWALSfR/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,19 +665,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.93</v>
+        <v>2.37</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.81</v>
+        <v>3.75</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-lustenau/zDPoyEgL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
         </is>
       </c>
     </row>
@@ -757,19 +757,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-lustenau/zDPoyEgL/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.91</v>
+        <v>5.65</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.6</v>
+        <v>5.73</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.35</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>6.04</v>
+        <v>8.49</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-a-lustenau/S8FIfajB/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5.65</v>
+        <v>4.91</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>5.73</v>
+        <v>4.6</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>8.630000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>8.49</v>
+        <v>6.04</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-a-lustenau/S8FIfajB/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.88</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.62</v>
+        <v>4.12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>4.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.41</v>
+        <v>4.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>5.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:38</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.68</v>
+        <v>2.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.69</v>
+        <v>3.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,15 +4652,15 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.12</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.04</v>
+        <v>3.62</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,24 +4668,24 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.84</v>
+        <v>2.41</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.17</v>
+        <v>2.24</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:38</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.7</v>
+        <v>3.19</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:55</t>
+          <t>21/10/2023 16:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:54</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.18</v>
+        <v>5.02</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:58</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:53</t>
+          <t>21/10/2023 16:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.47</v>
+        <v>3.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,32 +6316,32 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.02</v>
+        <v>4.21</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:54</t>
         </is>
       </c>
       <c r="R64" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
         <v>5.02</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>4.82</v>
-      </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,558 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-a-klagenfurt/4nWALSfR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:38</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:21</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-hartberg/EurnJfjQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45228.60416666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:23</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-austria-vienna/j7AgD427/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-lask-linz/6FvvLGLD/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,19 +665,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-lustenau/zDPoyEgL/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.81</v>
+        <v>3.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.81</v>
+        <v>4.19</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:58</t>
+          <t>29/07/2023 16:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-lustenau/zDPoyEgL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-bw-linz/M9LsxfvF/</t>
         </is>
       </c>
     </row>
@@ -849,38 +849,38 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>07/07/2023 11:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.88</v>
+        <v>3.76</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.59</v>
+        <v>3.81</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.19</v>
+        <v>3.75</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.28</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:59</t>
+          <t>29/07/2023 16:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-bw-linz/M9LsxfvF/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-a-klagenfurt/UZOkzY8R/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.58</v>
+        <v>3.62</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.31</v>
+        <v>3.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.49</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.79</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.09</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.62</v>
+        <v>2.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.93</v>
+        <v>2.31</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>3.49</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.93</v>
+        <v>3.67</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>2.79</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>3.09</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.47</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>2.43</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.94</v>
+        <v>3.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.87</v>
+        <v>3.63</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.21</v>
+        <v>2.56</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.7</v>
+        <v>2.93</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tirol</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.52</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.63</v>
+        <v>3.86</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.56</v>
+        <v>4.42</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.93</v>
+        <v>3.99</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:52</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.37</v>
+        <v>4.13</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.1</v>
+        <v>3.56</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>7.28</v>
+        <v>3.46</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:52</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.13</v>
+        <v>4.37</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.72</v>
+        <v>5.55</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.56</v>
+        <v>5.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.46</v>
+        <v>7.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.88</v>
+        <v>1.54</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.35</v>
+        <v>4.91</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.01</v>
+        <v>4.6</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.64</v>
+        <v>6.35</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>6.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-klagenfurt/drKMgJ5H/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.91</v>
+        <v>4.35</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.6</v>
+        <v>4.01</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.35</v>
+        <v>4.64</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.04</v>
+        <v>4</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-klagenfurt/drKMgJ5H/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.71</v>
+        <v>2.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.22</v>
+        <v>2.35</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:52</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:52</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.29</v>
+        <v>3.2</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:56</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-lask-linz/Ic8ViczU/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-altach/8MmuC0Lo/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.58</v>
+        <v>3.71</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.35</v>
+        <v>3.22</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>2.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:56</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-altach/8MmuC0Lo/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-lask-linz/Ic8ViczU/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.69</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.12</v>
+        <v>3.62</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.04</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.84</v>
+        <v>2.41</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:38</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>1.16</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.28</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.62</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.62</v>
+        <v>6.59</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.41</v>
+        <v>14.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.24</v>
+        <v>10.89</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:38</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.58</v>
+        <v>1.59</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.95</v>
+        <v>1.74</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.87</v>
+        <v>4.48</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.99</v>
+        <v>5.48</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.47</v>
+        <v>4.62</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>24/09/2023 14:29</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.74</v>
+        <v>2.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.48</v>
+        <v>1.99</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.62</v>
+        <v>2.47</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.7</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
-      </c>
       <c r="J56" t="n">
-        <v>5.42</v>
+        <v>1.61</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>7.27</v>
+        <v>1.6</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:55</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>5.21</v>
+        <v>4.43</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:46</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>5.12</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:55</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.61</v>
+        <v>5.42</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.6</v>
+        <v>7.27</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:55</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.43</v>
+        <v>5.21</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:46</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.12</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:55</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:53</t>
+          <t>21/10/2023 16:55</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.47</v>
+        <v>3.88</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,32 +6132,32 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.02</v>
+        <v>4.21</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:54</t>
         </is>
       </c>
       <c r="R62" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
         <v>5.02</v>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>4.82</v>
-      </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:55</t>
+          <t>21/10/2023 16:53</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:54</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.18</v>
+        <v>5.02</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:58</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.55</v>
+        <v>4.26</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.71</v>
+        <v>5.25</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.68</v>
+        <v>4.65</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.79</v>
+        <v>2.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.26</v>
+        <v>3.55</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.25</v>
+        <v>2.71</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.65</v>
+        <v>2.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,282 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-lask-linz/6FvvLGLD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:44</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:48</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.62</v>
+        <v>2.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.93</v>
+        <v>2.31</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.49</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.93</v>
+        <v>3.67</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>2.79</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>30/07/2023 17:12</t>
+          <t>30/07/2023 16:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.93</v>
+        <v>3.09</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>06/08/2023 16:58</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.58</v>
+        <v>3.62</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>3.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.49</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.67</v>
+        <v>3.93</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.79</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>30/07/2023 16:42</t>
+          <t>30/07/2023 17:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.09</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:58</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-hartberg/6FzsYpws/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-austria-vienna/0G89jgg8/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.43</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.52</v>
+        <v>4.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.63</v>
+        <v>4.87</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.56</v>
+        <v>6.21</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.93</v>
+        <v>5.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.94</v>
+        <v>4.07</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.87</v>
+        <v>3.86</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.21</v>
+        <v>4.42</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.7</v>
+        <v>3.99</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.07</v>
+        <v>3.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.86</v>
+        <v>3.63</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.42</v>
+        <v>2.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.99</v>
+        <v>2.93</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:52</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.13</v>
+        <v>4.37</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.72</v>
+        <v>5.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.56</v>
+        <v>5.1</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.46</v>
+        <v>7.28</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:55</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:52</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.37</v>
+        <v>4.13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.55</v>
+        <v>3.72</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.1</v>
+        <v>3.56</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.28</v>
+        <v>3.46</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:55</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-tirol/MVhivv6U/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-a-klagenfurt/M5PcaNyt/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.48</v>
+        <v>1.68</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.91</v>
+        <v>4.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.6</v>
+        <v>4.01</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>6.35</v>
+        <v>4.64</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.04</v>
+        <v>4</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-klagenfurt/drKMgJ5H/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.65</v>
+        <v>4.91</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>5.73</v>
+        <v>4.6</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>8.630000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>8.49</v>
+        <v>6.04</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 16:58</t>
+          <t>03/09/2023 16:59</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-a-lustenau/S8FIfajB/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-rapid-vienna/lIGEeuy5/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.35</v>
+        <v>5.65</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.01</v>
+        <v>5.73</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.64</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>8.49</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:59</t>
+          <t>03/09/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-klagenfurt/drKMgJ5H/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-a-lustenau/S8FIfajB/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.58</v>
+        <v>3.71</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.35</v>
+        <v>3.22</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.62</v>
+        <v>3.88</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>2.29</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 16:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-altach/8MmuC0Lo/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-lask-linz/Ic8ViczU/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.71</v>
+        <v>2.58</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.22</v>
+        <v>2.35</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:52</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.88</v>
+        <v>3.62</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:52</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.29</v>
+        <v>3.2</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 16:56</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-lask-linz/Ic8ViczU/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-altach/8MmuC0Lo/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.88</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.62</v>
+        <v>4.12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>4.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.41</v>
+        <v>4.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>5.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:38</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.16</v>
+        <v>2.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>3.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>8.359999999999999</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.59</v>
+        <v>3.62</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>14.49</v>
+        <v>2.41</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>10.89</v>
+        <v>2.24</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:38</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.74</v>
+        <v>2.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.48</v>
+        <v>1.99</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.62</v>
+        <v>2.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.58</v>
+        <v>1.59</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.95</v>
+        <v>1.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.87</v>
+        <v>4.48</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.99</v>
+        <v>5.48</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.47</v>
+        <v>4.62</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:29</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>9.880000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13.38</v>
+        <v>3.19</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6.64</v>
+        <v>3.73</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.85</v>
+        <v>3.44</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.2</v>
+        <v>2.35</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>2.81</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.7</v>
+        <v>13.38</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.54</v>
+        <v>6.64</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.38</v>
+        <v>7.85</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>1.2</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>2.7</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.61</v>
+        <v>5.42</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.6</v>
+        <v>7.27</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:55</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.43</v>
+        <v>5.21</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:46</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.12</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>01/10/2023 13:42</t>
+          <t>01/10/2023 16:12</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:55</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>5</v>
-      </c>
       <c r="J58" t="n">
-        <v>5.42</v>
+        <v>1.61</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>7.27</v>
+        <v>1.6</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:55</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>5.21</v>
+        <v>4.43</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:46</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>5.12</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/10/2023 16:12</t>
+          <t>01/10/2023 13:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>07/10/2023 16:42</t>
+          <t>07/10/2023 16:55</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-tirol/UTwbOUA8/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.32</v>
+        <v>1.46</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.28</v>
+        <v>1.84</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:10</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.78</v>
+        <v>6.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.87</v>
+        <v>4.63</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.26</v>
+        <v>7.81</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>5.25</v>
+        <v>16.28</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.65</v>
+        <v>11.39</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.55</v>
+        <v>4.26</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.71</v>
+        <v>5.25</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.68</v>
+        <v>4.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.27</v>
+        <v>2.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:38</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>7.81</v>
+        <v>3.55</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>6.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>16.28</v>
+        <v>2.71</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>11.39</v>
+        <v>2.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>8.32</v>
+        <v>1.37</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>11.61</v>
+        <v>1.28</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:44</t>
+          <t>04/11/2023 16:54</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>5.55</v>
+        <v>5.29</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.58</v>
+        <v>6.23</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:48</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.36</v>
+        <v>7.99</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.25</v>
+        <v>10.31</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 14:52</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.37</v>
+        <v>8.32</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.28</v>
+        <v>11.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:54</t>
+          <t>04/11/2023 16:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.29</v>
+        <v>5.55</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6.23</v>
+        <v>6.58</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 16:48</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>7.99</v>
+        <v>1.36</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>10.31</v>
+        <v>1.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 14:52</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:27</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,40 +4468,40 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3.58</v>
+        <v>1.59</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.95</v>
+        <v>1.74</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.87</v>
+        <v>4.48</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.99</v>
+        <v>5.48</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.47</v>
+        <v>4.62</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>24/09/2023 14:29</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.74</v>
+        <v>2.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.48</v>
+        <v>1.99</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.62</v>
+        <v>2.47</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.7</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
-      </c>
       <c r="J56" t="n">
-        <v>5.42</v>
+        <v>1.78</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>7.27</v>
+        <v>1.93</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="N56" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="R56" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>01/10/2023 16:12</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="Q56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U56" t="inlineStr">
         <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>01/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T56" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.78</v>
+        <v>5.42</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.93</v>
+        <v>7.27</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>07/10/2023 16:58</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.12</v>
+        <v>4.45</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.94</v>
+        <v>5.21</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.22</v>
+        <v>1.57</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.81</v>
+        <v>1.42</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3.49</v>
+        <v>1.92</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.46</v>
+        <v>1.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.09</v>
+        <v>4.04</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.85</v>
+        <v>4.77</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,163 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.92</v>
+        <v>3.49</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.81</v>
+        <v>4.46</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.04</v>
+        <v>2.09</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.77</v>
+        <v>1.85</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-sturm-graz/GlUDEEbs/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.47</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.54</v>
+        <v>2.43</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>4.94</v>
+        <v>3.52</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.87</v>
+        <v>3.63</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>6.21</v>
+        <v>2.56</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.7</v>
+        <v>2.93</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tirol</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.52</v>
+        <v>4.07</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.63</v>
+        <v>3.86</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.56</v>
+        <v>4.42</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.93</v>
+        <v>3.99</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.37</v>
+        <v>3.11</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.58</v>
+        <v>2.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,32 +4200,32 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>17/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
           <t>17/09/2023 14:29</t>
         </is>
       </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T41" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:29</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-tirol/nDnqBKzh/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-austria-vienna/SO3tAvjb/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.11</v>
+        <v>2.37</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:21</t>
+          <t>17/09/2023 14:29</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-austria-vienna/SO3tAvjb/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-tirol/nDnqBKzh/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,40 +4468,40 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.74</v>
+        <v>2.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.17</v>
+        <v>3.53</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.48</v>
+        <v>1.99</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.62</v>
+        <v>2.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>24/09/2023 14:14</t>
+          <t>24/09/2023 14:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.58</v>
+        <v>1.59</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.95</v>
+        <v>1.74</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.87</v>
+        <v>4.48</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.99</v>
+        <v>5.48</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.47</v>
+        <v>4.62</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>24/09/2023 14:29</t>
+          <t>24/09/2023 14:14</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-austria-vienna/zef15G4T/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-hartberg/0x2l8IKA/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>9.880000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13.38</v>
+        <v>3.19</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6.64</v>
+        <v>3.73</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.85</v>
+        <v>3.44</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.2</v>
+        <v>2.35</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.95</v>
+        <v>5.85</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>6.41</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.96</v>
+        <v>9.69</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.85</v>
+        <v>10.26</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:28</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.85</v>
+        <v>3.95</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>6.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>9.69</v>
+        <v>3.96</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>10.26</v>
+        <v>3.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.78</v>
+        <v>5.42</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.93</v>
+        <v>7.27</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>07/10/2023 16:58</t>
+          <t>07/10/2023 16:42</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.12</v>
+        <v>4.45</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.94</v>
+        <v>5.21</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.22</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.81</v>
+        <v>1.42</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
       <c r="J57" t="n">
-        <v>5.42</v>
+        <v>1.78</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>7.27</v>
+        <v>1.93</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
+          <t>07/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="N57" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="R57" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>01/10/2023 16:12</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="Q57" t="inlineStr">
+      <c r="T57" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>07/10/2023 16:42</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>01/10/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T57" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:42</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-rapid-vienna/2NkGaoY7/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-bw-linz/t817173e/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.32</v>
+        <v>1.46</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.28</v>
+        <v>1.84</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:10</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.78</v>
+        <v>6.77</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.87</v>
+        <v>4.63</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:55</t>
+          <t>21/10/2023 16:53</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:54</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.18</v>
+        <v>5.02</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:58</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,14 +6193,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:32</t>
+          <t>21/10/2023 16:55</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.75</v>
+        <v>3.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:54</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.05</v>
+        <v>4.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.44</v>
+        <v>5.02</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:53</t>
+          <t>21/10/2023 16:32</t>
         </is>
       </c>
       <c r="N64" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
         <v>4.47</v>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>21/10/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>4.82</v>
+        <v>5.44</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:33</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:38</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>7.81</v>
+        <v>4.26</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>6.39</v>
+        <v>3.89</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>16.28</v>
+        <v>5.25</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>11.39</v>
+        <v>4.65</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.79</v>
+        <v>2.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.26</v>
+        <v>3.55</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.89</v>
+        <v>3.43</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.25</v>
+        <v>2.71</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.65</v>
+        <v>2.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.63</v>
+        <v>1.17</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.76</v>
+        <v>1.27</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:38</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.55</v>
+        <v>7.81</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.43</v>
+        <v>6.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.71</v>
+        <v>16.28</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.68</v>
+        <v>11.39</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,282 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-sturm-graz/GlUDEEbs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-rapid-vienna/2LKmRirm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-wolfsberger-ac/OULqSXSt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>4.94</v>
+        <v>4.07</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.87</v>
+        <v>3.86</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.21</v>
+        <v>4.42</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.7</v>
+        <v>3.99</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Hartberg</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.07</v>
+        <v>4.94</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.86</v>
+        <v>4.87</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.42</v>
+        <v>6.21</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.99</v>
+        <v>5.7</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-hartberg/CIQ1TMiC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>3.11</v>
+        <v>2.37</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>3.62</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>17/09/2023 14:21</t>
+          <t>17/09/2023 14:29</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-austria-vienna/SO3tAvjb/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-tirol/nDnqBKzh/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.37</v>
+        <v>3.11</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>2.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>17/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>17/09/2023 14:29</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:29</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-tirol/nDnqBKzh/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-austria-vienna/SO3tAvjb/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.85</v>
+        <v>3.95</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>6.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>9.69</v>
+        <v>3.96</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>10.26</v>
+        <v>3.85</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.95</v>
+        <v>5.85</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>6.41</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.96</v>
+        <v>9.69</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.85</v>
+        <v>10.26</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:28</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,48 +6116,48 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:53</t>
+          <t>21/10/2023 16:32</t>
         </is>
       </c>
       <c r="N62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
         <v>4.47</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>21/10/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
       <c r="T62" t="n">
-        <v>4.82</v>
+        <v>5.44</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:33</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:55</t>
+          <t>21/10/2023 16:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:54</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.18</v>
+        <v>5.02</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:58</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:32</t>
+          <t>21/10/2023 16:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.75</v>
+        <v>3.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:54</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.05</v>
+        <v>4.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.44</v>
+        <v>5.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:38</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.26</v>
+        <v>7.81</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>5.25</v>
+        <v>16.28</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.65</v>
+        <v>11.39</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.55</v>
+        <v>4.26</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.71</v>
+        <v>5.25</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.68</v>
+        <v>4.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.27</v>
+        <v>2.76</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:38</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>7.81</v>
+        <v>3.55</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>6.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>16.28</v>
+        <v>2.71</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>11.39</v>
+        <v>2.68</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.37</v>
+        <v>2.25</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.28</v>
+        <v>2.09</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:54</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>5.29</v>
+        <v>3.63</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.23</v>
+        <v>3.68</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>7.99</v>
+        <v>3.22</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>10.31</v>
+        <v>3.59</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>8.32</v>
+        <v>1.37</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>11.61</v>
+        <v>1.28</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:44</t>
+          <t>04/11/2023 16:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.55</v>
+        <v>5.29</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6.58</v>
+        <v>6.23</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:48</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.36</v>
+        <v>7.99</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.25</v>
+        <v>10.31</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 14:52</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.25</v>
+        <v>8.32</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.09</v>
+        <v>11.61</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 16:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.63</v>
+        <v>5.55</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.68</v>
+        <v>6.58</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 16:48</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.22</v>
+        <v>1.36</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.59</v>
+        <v>1.25</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 14:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.92</v>
+        <v>3.49</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.81</v>
+        <v>4.46</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.04</v>
+        <v>2.09</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.77</v>
+        <v>1.85</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.49</v>
+        <v>1.92</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.46</v>
+        <v>1.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.09</v>
+        <v>4.04</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.85</v>
+        <v>4.77</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-sturm-graz/4puDXg5J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45242.60416666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-lask-linz/ImqHWDKP/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Sturm Graz</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>3</v>
-      </c>
       <c r="J83" t="n">
-        <v>4.48</v>
+        <v>3.63</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.78</v>
+        <v>5.12</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.92</v>
+        <v>3.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>12/11/2023 14:22</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-sturm-graz/4puDXg5J/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-lask-linz/ImqHWDKP/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,163 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:22</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-sturm-graz/4puDXg5J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:12</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>12/11/2023 14:29</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>12/11/2023 14:29</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>12/11/2023 14:29</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-lask-linz/ImqHWDKP/</t>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-salzburg/jsiV8ASI/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.06</v>
+        <v>6.49</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.11</v>
+        <v>5.64</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.47</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.26</v>
+        <v>7.07</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:52</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.49</v>
+        <v>4.06</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5.64</v>
+        <v>4.11</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>8.029999999999999</v>
+        <v>4.47</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.07</v>
+        <v>4.26</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>5.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5.89</v>
+        <v>8.08</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4.67</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.89</v>
+        <v>5.37</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>12/08/2023 17:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>5.85</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8.08</v>
+        <v>5.89</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.67</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.37</v>
+        <v>4.89</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 17:12</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-sturm-graz/b9aKo47t/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-lask-linz/8pKAR0MO/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.29</v>
+        <v>4.16</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5.02</v>
+        <v>3.74</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.63</v>
+        <v>3.95</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.16</v>
+        <v>5.29</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.74</v>
+        <v>5.02</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.95</v>
+        <v>4.63</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.69</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.12</v>
+        <v>3.62</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.04</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.84</v>
+        <v>2.41</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>17/09/2023 16:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:38</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.88</v>
+        <v>1.16</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.28</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.62</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.62</v>
+        <v>6.59</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.41</v>
+        <v>14.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>17/09/2023 16:13</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.24</v>
+        <v>10.89</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:38</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-wolfsberger-ac/SnnT0zDp/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>9.880000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>13.38</v>
+        <v>3.19</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>6.64</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>7.85</v>
+        <v>3.44</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.2</v>
+        <v>2.35</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.32</v>
+        <v>1.46</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.28</v>
+        <v>1.84</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:10</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.78</v>
+        <v>6.77</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.87</v>
+        <v>4.63</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,14 +6101,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:32</t>
+          <t>21/10/2023 16:55</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.75</v>
+        <v>3.88</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.47</v>
+        <v>4.21</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:54</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.05</v>
+        <v>4.18</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.44</v>
+        <v>5.02</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/10/2023 16:33</t>
+          <t>21/10/2023 16:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,48 +6208,48 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:53</t>
+          <t>21/10/2023 16:32</t>
         </is>
       </c>
       <c r="N63" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
         <v>4.47</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>10/10/2023 13:12</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>21/10/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>10/10/2023 13:12</t>
-        </is>
-      </c>
       <c r="T63" t="n">
-        <v>4.82</v>
+        <v>5.44</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/10/2023 16:56</t>
+          <t>21/10/2023 16:33</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-lask-linz/8Kx2NlQE/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:55</t>
+          <t>21/10/2023 16:53</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.21</v>
+        <v>4.02</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:54</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.18</v>
+        <v>5.02</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/10/2023 16:58</t>
+          <t>21/10/2023 16:56</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-lustenau/MRIxHn3r/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-hartberg/jqS6M8uL/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.27</v>
+        <v>2.76</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:38</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>7.81</v>
+        <v>3.55</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>6.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="R68" t="n">
-        <v>16.28</v>
+        <v>2.71</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>11.39</v>
+        <v>2.68</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:38</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.26</v>
+        <v>7.81</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.25</v>
+        <v>16.28</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.65</v>
+        <v>11.39</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.55</v>
+        <v>4.26</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.71</v>
+        <v>5.25</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.68</v>
+        <v>4.65</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>3.83</v>
+        <v>1.54</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4.62</v>
+        <v>1.76</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:23</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>1.9</v>
+        <v>5.74</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.77</v>
+        <v>4.63</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-hartberg/EurnJfjQ/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-austria-vienna/j7AgD427/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>1.54</v>
+        <v>3.83</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.76</v>
+        <v>4.62</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:23</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:27</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.74</v>
+        <v>1.9</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>4.63</v>
+        <v>1.77</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:27</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-austria-vienna/j7AgD427/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-hartberg/EurnJfjQ/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.25</v>
+        <v>1.37</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 16:54</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.63</v>
+        <v>5.29</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.68</v>
+        <v>6.23</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.22</v>
+        <v>7.99</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.59</v>
+        <v>10.31</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:58</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>1.37</v>
+        <v>8.32</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.28</v>
+        <v>11.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:54</t>
+          <t>04/11/2023 16:44</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.29</v>
+        <v>5.55</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6.23</v>
+        <v>6.58</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 16:48</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>7.99</v>
+        <v>1.36</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>10.31</v>
+        <v>1.25</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 14:52</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>8.32</v>
+        <v>2.25</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>11.61</v>
+        <v>2.09</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>04/11/2023 16:44</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.55</v>
+        <v>3.63</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.58</v>
+        <v>3.68</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>04/11/2023 16:48</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.36</v>
+        <v>3.22</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.25</v>
+        <v>3.59</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>04/11/2023 14:52</t>
+          <t>04/11/2023 16:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-klagenfurt/bDJIDYDm/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Rapid Vienna</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:59</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.83</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.78</v>
+        <v>3.45</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:59</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:59</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-rapid-vienna/2LKmRirm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.81</v>
+        <v>3.63</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:59</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.08</v>
+        <v>3.83</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.04</v>
+        <v>3.78</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-wolfsberger-ac/OULqSXSt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-rapid-vienna/2LKmRirm/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>2.9</v>
+        <v>4.28</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.67</v>
+        <v>4.81</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.59</v>
+        <v>4.08</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-wolfsberger-ac/OULqSXSt/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.63</v>
+        <v>4.48</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5.12</v>
+        <v>4.78</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>12/11/2023 14:29</t>
+          <t>12/11/2023 14:26</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>12/11/2023 14:29</t>
+          <t>12/11/2023 14:22</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>12/11/2023 14:29</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-lask-linz/ImqHWDKP/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-sturm-graz/4puDXg5J/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Sturm Graz</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
       <c r="J84" t="n">
-        <v>4.48</v>
+        <v>3.63</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.78</v>
+        <v>5.12</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>12/11/2023 14:26</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.92</v>
+        <v>3.79</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>12/11/2023 14:22</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 14:29</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-sturm-graz/4puDXg5J/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-lask-linz/ImqHWDKP/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,558 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-salzburg/jsiV8ASI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>8</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-tirol/hAD0OkS5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-hartberg/AoOePVCa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:36</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-lustenau/b7G8MTdI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-a-klagenfurt/EFbepXlP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45256.60416666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-austria-vienna/4pH4N9sC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-bw-linz/xbFCLmCO/</t>
         </is>
       </c>
     </row>

--- a/2023/austria_bundesliga_2023-2024.xlsx
+++ b/2023/austria_bundesliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:52</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.49</v>
+        <v>4.06</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5.64</v>
+        <v>4.11</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>8.029999999999999</v>
+        <v>4.47</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>05/08/2023 19:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7.07</v>
+        <v>4.26</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 16:58</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.06</v>
+        <v>6.49</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.11</v>
+        <v>5.64</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.47</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>05/08/2023 19:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.26</v>
+        <v>7.07</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 16:58</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-a-lustenau/SUOkWO7g/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-klagenfurt/p6ZpX4hm/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.43</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.52</v>
+        <v>4.94</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.63</v>
+        <v>4.87</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.56</v>
+        <v>6.21</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>07/08/2023 07:42</t>
+          <t>06/08/2023 17:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.93</v>
+        <v>5.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:51</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.47</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.54</v>
+        <v>2.43</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.94</v>
+        <v>3.52</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.87</v>
+        <v>3.63</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.21</v>
+        <v>2.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 17:12</t>
+          <t>07/08/2023 07:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.7</v>
+        <v>2.93</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-austria-vienna/YRRcU2x6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-tirol/UgL6St7I/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>4.16</v>
+        <v>5.29</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.74</v>
+        <v>5.02</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.95</v>
+        <v>4.63</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 16:55</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.29</v>
+        <v>4.16</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5.02</v>
+        <v>3.74</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.63</v>
+        <v>3.95</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:55</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-salzburg/Ea2Wr2ia/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-rapid-vienna/KOmTqrxg/</t>
         </is>
       </c>
     </row>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
       <c r="J26" t="n">
-        <v>5.74</v>
+        <v>1.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6.42</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2812,15 +2812,15 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.72</v>
+        <v>6.51</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.43</v>
+        <v>5.85</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2828,15 +2828,15 @@
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>10.58</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>20/08/2023 17:12</t>
+          <t>20/08/2023 18:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.54</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-salzburg/zFjustMB/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-bw-linz/hj1zrM65/</t>
         </is>
       </c>
     </row>
@@ -2873,30 +2873,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.27</v>
+        <v>5.74</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>6.42</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,15 +2904,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6.51</v>
+        <v>4.72</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5.85</v>
+        <v>4.43</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,15 +2920,15 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>10.58</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:12</t>
+          <t>20/08/2023 17:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>9.289999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-bw-linz/hj1zrM65/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-salzburg/zFjustMB/</t>
         </is>
       </c>
     </row>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Lustenau</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4560,40 +4560,40 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.12</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.04</v>
+        <v>6.59</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.84</v>
+        <v>14.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>17/09/2023 13:43</t>
+          <t>16/09/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.17</v>
+        <v>10.89</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 16:50</t>
+          <t>23/09/2023 16:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
         </is>
       </c>
     </row>
@@ -4621,30 +4621,30 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>BW Linz</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.16</v>
+        <v>1.68</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>8.359999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>6.59</v>
+        <v>4.04</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>14.49</v>
+        <v>4.84</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>16/09/2023 18:42</t>
+          <t>17/09/2023 13:43</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>10.89</v>
+        <v>5.17</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 16:57</t>
+          <t>23/09/2023 16:50</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-bw-linz/6F2p9b54/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-a-lustenau/Eu6h7xzH/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>9.880000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>13.38</v>
+        <v>2.7</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>6.64</v>
+        <v>3.54</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7.85</v>
+        <v>3.38</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:48</t>
+          <t>30/09/2023 16:38</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.2</v>
+        <v>2.77</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>30/09/2023 16:34</t>
+          <t>30/09/2023 16:50</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.7</v>
+        <v>3.19</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:38</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>30/09/2023 16:50</t>
+          <t>30/09/2023 16:43</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-a-klagenfurt/0jsNMHZ3/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.19</v>
+        <v>13.38</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>6.64</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.44</v>
+        <v>7.85</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:48</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.13</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.35</v>
+        <v>1.2</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>30/09/2023 16:43</t>
+          <t>30/09/2023 16:34</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-lask-linz/6woXafSj/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-salzburg/vstRLykA/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.09</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.95</v>
+        <v>5.85</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>6.41</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:29</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.96</v>
+        <v>9.69</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>24/09/2023 13:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.85</v>
+        <v>10.26</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>01/10/2023 14:28</t>
+          <t>01/10/2023 14:24</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.27</v>
+        <v>2.09</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.85</v>
+        <v>3.95</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>6.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:29</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>9.69</v>
+        <v>3.96</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>24/09/2023 13:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>10.26</v>
+        <v>3.85</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>01/10/2023 14:24</t>
+          <t>01/10/2023 14:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-tirol/6TsJNcKc/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-altach/dIzWKe4G/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.32</v>
+        <v>1.46</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.28</v>
+        <v>1.84</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:10</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>4.03</v>
+        <v>4.72</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.83</v>
+        <v>3.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.78</v>
+        <v>6.77</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.87</v>
+        <v>4.63</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>08/10/2023 14:21</t>
+          <t>08/10/2023 14:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.46</v>
+        <v>4.32</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.84</v>
+        <v>4.28</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:10</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.72</v>
+        <v>4.03</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.69</v>
+        <v>3.83</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>6.77</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.63</v>
+        <v>1.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 14:27</t>
+          <t>08/10/2023 14:21</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-altach/Ysba3TYr/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/wolfsberger-ac-sturm-graz/S4c32mlk/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.51</v>
+        <v>4.03</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/10/2023 13:12</t>
+          <t>11/10/2023 12:54</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.66</v>
+        <v>4.26</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>22/10/2023 14:21</t>
+          <t>22/10/2023 14:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/10/2023 13:12</t>
+          <t>11/10/2023 12:54</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.06</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22/10/2023 14:21</t>
+          <t>22/10/2023 14:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.92</v>
+        <v>1.9</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/10/2023 13:12</t>
+          <t>11/10/2023 12:54</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.87</v>
+        <v>1.83</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>22/10/2023 14:21</t>
+          <t>22/10/2023 14:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-wolfsberger-ac/0IHtG6Il/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-austria-vienna/IgCoFQXf/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.03</v>
+        <v>2.51</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>11/10/2023 12:54</t>
+          <t>10/10/2023 13:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.26</v>
+        <v>2.66</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>22/10/2023 14:26</t>
+          <t>22/10/2023 14:21</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.74</v>
+        <v>3.35</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>11/10/2023 12:54</t>
+          <t>10/10/2023 13:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.06</v>
+        <v>3.31</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>22/10/2023 14:26</t>
+          <t>22/10/2023 14:21</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.9</v>
+        <v>2.92</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>11/10/2023 12:54</t>
+          <t>10/10/2023 13:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.83</v>
+        <v>2.87</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>22/10/2023 14:26</t>
+          <t>22/10/2023 14:21</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-austria-vienna/IgCoFQXf/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-wolfsberger-ac/0IHtG6Il/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>A. Klagenfurt</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.76</v>
+        <v>1.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:56</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.55</v>
+        <v>4.26</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.43</v>
+        <v>3.89</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.71</v>
+        <v>5.25</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>22/10/2023 17:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.68</v>
+        <v>4.65</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>28/10/2023 16:53</t>
+          <t>28/10/2023 16:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.27</v>
+        <v>2.76</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:38</t>
+          <t>28/10/2023 16:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>7.81</v>
+        <v>3.55</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>6.39</v>
+        <v>3.43</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>16.28</v>
+        <v>2.71</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>11.39</v>
+        <v>2.68</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>28/10/2023 16:52</t>
+          <t>28/10/2023 16:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-wolfsberger-ac/p6wrKzyK/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>A. Klagenfurt</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:38</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.26</v>
+        <v>7.81</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.89</v>
+        <v>6.39</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.25</v>
+        <v>16.28</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>22/10/2023 17:12</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.65</v>
+        <v>11.39</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>28/10/2023 16:59</t>
+          <t>28/10/2023 16:52</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-tirol/2sEcCOHD/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-altach/dpBkEpm1/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>1.54</v>
+        <v>3.83</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.76</v>
+        <v>4.62</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:23</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:27</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.74</v>
+        <v>1.9</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>22/10/2023 14:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.63</v>
+        <v>1.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>29/10/2023 14:27</t>
+          <t>29/10/2023 14:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-austria-vienna/j7AgD427/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-hartberg/EurnJfjQ/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.83</v>
+        <v>1.54</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4.62</v>
+        <v>1.76</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:23</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4.04</v>
+        <v>4.07</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.9</v>
+        <v>5.74</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>22/10/2023 14:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.77</v>
+        <v>4.63</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>29/10/2023 14:21</t>
+          <t>29/10/2023 14:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-hartberg/EurnJfjQ/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-austria-vienna/j7AgD427/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.37</v>
+        <v>8.32</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.28</v>
+        <v>11.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:54</t>
+          <t>04/11/2023 16:44</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>5.29</v>
+        <v>5.55</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.23</v>
+        <v>6.58</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 16:48</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>7.99</v>
+        <v>1.36</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>28/10/2023 18:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>10.31</v>
+        <v>1.25</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 16:56</t>
+          <t>04/11/2023 14:52</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Austria Vienna</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Salzburg</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>8.32</v>
+        <v>1.37</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>11.61</v>
+        <v>1.28</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:44</t>
+          <t>04/11/2023 16:54</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5.55</v>
+        <v>5.29</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>6.58</v>
+        <v>6.23</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 16:48</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.36</v>
+        <v>7.99</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>28/10/2023 18:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.25</v>
+        <v>10.31</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 14:52</t>
+          <t>04/11/2023 16:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-salzburg/CjhR9jDC/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-a-lustenau/CGNMChTg/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>3.49</v>
+        <v>1.92</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.46</v>
+        <v>1.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.8</v>
+        <v>3.69</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.09</v>
+        <v>4.04</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 17:12</t>
+          <t>29/10/2023 14:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.85</v>
+        <v>4.77</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>05/11/2023 14:27</t>
+          <t>05/11/2023 14:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BW Linz</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.92</v>
+        <v>3.49</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.81</v>
+        <v>4.46</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.69</v>
+        <v>3.8</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.04</v>
+        <v>2.09</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 14:42</t>
+          <t>29/10/2023 17:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.77</v>
+        <v>1.85</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>05/11/2023 14:29</t>
+          <t>05/11/2023 14:27</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-bw-linz/pULUAWc6/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-rapid-vienna/6wNQBCr0/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Altach</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.9</v>
+        <v>4.28</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.67</v>
+        <v>4.81</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>4.08</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>05/11/2023 14:42</t>
+          <t>04/11/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.15</v>
+        <v>1.74</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/11/2023 16:45</t>
+          <t>11/11/2023 16:55</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-wolfsberger-ac/OULqSXSt/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Wolfsberger AC</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>4.28</v>
+        <v>2.9</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4.81</v>
+        <v>3.67</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.08</v>
+        <v>3.59</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.04</v>
+        <v>3.45</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>04/11/2023 17:13</t>
+          <t>05/11/2023 14:42</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/11/2023 16:55</t>
+          <t>11/11/2023 16:45</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-wolfsberger-ac/OULqSXSt/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-altach/WfPiQBcg/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>Salzburg</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tirol</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>12/11/2023 17:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>25/11/2023 16:36</t>
+          <t>25/11/2023 16:15</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>5.52</v>
+        <v>5.29</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>12/11/2023 17:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>5.6</v>
+        <v>4.67</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>25/11/2023 16:56</t>
+          <t>25/11/2023 16:28</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>8</v>
+        <v>7.36</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>12/11/2023 15:42</t>
+          <t>12/11/2023 17:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>8.81</v>
+        <v>6.29</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>25/11/2023 16:56</t>
+          <t>25/11/2023 16:51</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-tirol/hAD0OkS5/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-hartberg/AoOePVCa/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salzburg</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>12/11/2023 17:12</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>25/11/2023 16:15</t>
+          <t>25/11/2023 16:36</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>5.29</v>
+        <v>7.29</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>12/11/2023 17:12</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.67</v>
+        <v>7.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>25/11/2023 16:28</t>
+          <t>25/11/2023 16:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>7.36</v>
+        <v>12.28</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>12/11/2023 17:12</t>
+          <t>12/11/2023 15:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>6.29</v>
+        <v>12.96</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>25/11/2023 16:51</t>
+          <t>25/11/2023 16:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-hartberg/AoOePVCa/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-lustenau/b7G8MTdI/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Tirol</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.29</v>
+        <v>5.52</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>7.09</v>
+        <v>5.6</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>25/11/2023 16:59</t>
+          <t>25/11/2023 16:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>12.28</v>
+        <v>8</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>12.96</v>
+        <v>8.81</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>25/11/2023 16:59</t>
+          <t>25/11/2023 16:56</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-a-lustenau/b7G8MTdI/</t>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/lask-linz-tirol/hAD0OkS5/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,1110 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-bw-linz/xbFCLmCO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45263.60416666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-sturm-graz/6Dwzwksa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45263.60416666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:47</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/salzburg-wolfsberger-ac/GOpNuict/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/austria-vienna-lask-linz/AopRvBCn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45264.79166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-hartberg/OllVwVRh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45265.79166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/altach-a-lustenau/p4xvx9d5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45265.79166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/tirol-rapid-vienna/hUyryTBB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45269.60416666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:24</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>05/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/rapid-vienna-salzburg/QLhKHvBj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45269.70833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>A. Klagenfurt</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-klagenfurt-austria-vienna/CIlGIKep/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45269.70833333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>A. Lustenau</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:38</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/a-lustenau-lask-linz/IFu6ur3c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45270.60416666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Hartberg</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Wolfsberger AC</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:15</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/hartberg-wolfsberger-ac/zizBv2I3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45270.60416666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>BW Linz</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Tirol</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/bw-linz-tirol/vPt2tOmi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>austria</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>bundesliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sturm Graz</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Altach</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:14</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:14</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:14</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/austria/bundesliga/sturm-graz-altach/WKznzmRH/</t>
         </is>
       </c>
     </row>
